--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_24_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_24_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>225799.8934474898</v>
+        <v>221157.0058037537</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7724244.484134695</v>
+        <v>7708748.508663151</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4556490.932337726</v>
+        <v>4563619.081054636</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>2.873653090726851</v>
+        <v>23.32779925082525</v>
       </c>
       <c r="D2" t="n">
-        <v>3.262548922260277</v>
+        <v>23.32779925082525</v>
       </c>
       <c r="E2" t="n">
-        <v>3.262548922260277</v>
+        <v>21.83835005089345</v>
       </c>
       <c r="F2" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.677227098474517</v>
+        <v>17.3908863221817</v>
       </c>
       <c r="F3" t="n">
-        <v>3.262548922260277</v>
+        <v>23.32779925082525</v>
       </c>
       <c r="G3" t="n">
-        <v>3.262548922260277</v>
+        <v>23.32779925082525</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>12.76456957586341</v>
       </c>
       <c r="E4" t="n">
-        <v>1.40220350370247</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>19.70124719403649</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -980,67 +980,67 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>30.58073358141467</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="E6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="F6" t="n">
-        <v>30.58073358141467</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>38.83972215570805</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>16.07267624245948</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>23.58875529488437</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>67.27314779414253</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>37.66848280186482</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>60.69219460224475</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T9" t="n">
-        <v>56.19655001335038</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>67.27314779414253</v>
+        <v>30.58073358141467</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>67.27314779414253</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>38.83972215570805</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>9.196802639836637</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>16.88359225331198</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>266.1231433521326</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>224.4032842719485</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306969</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>116.1663075101581</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>72.53298129358279</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>25.17873337201431</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>25.12085182439112</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>37.69870921092648</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>226.0761408032252</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>201.463692326562</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>21.97692305979205</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>5.033780699103638</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>54.72720860916075</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>394.4969891947694</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>156.7012890994288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>45.41503616524977</v>
+        <v>134.9973149916972</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.6615473203988</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2326,16 +2326,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>334.8102698094188</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>17.04184695899054</v>
+        <v>63.97425976834476</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>168.9792238889525</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>324.0134847759234</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>31.40208394875353</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.9704393513084</v>
       </c>
     </row>
     <row r="29">
@@ -2800,13 +2800,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.2141160760817438</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>172.5998412330484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>31.40208394875341</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>125.58760446523</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>149.6157531058523</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>83.0947751066758</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>36.11504171950693</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5293560035713</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>186.0325948128203</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>156.7012890994282</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>117.1260188217786</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>159.5276608438253</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>371.4908790191322</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>391.5120550031314</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>63.97425976834476</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>158.3404166400544</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
@@ -3799,13 +3799,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>153.2863001849651</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>120.3101300911915</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>176.0448961179416</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>143.3799676061189</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>361.9987888703321</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>187.5913948237732</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>5.033780699103757</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>31.40208394875353</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
@@ -4197,10 +4197,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.05019568904111</v>
+        <v>71.0520305587973</v>
       </c>
       <c r="C2" t="n">
-        <v>10.14751579941803</v>
+        <v>47.48859697210512</v>
       </c>
       <c r="D2" t="n">
-        <v>6.852011837538958</v>
+        <v>23.92516338541294</v>
       </c>
       <c r="E2" t="n">
-        <v>3.55650787565989</v>
+        <v>1.86622394006602</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.86622394006602</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.86622394006602</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.86622394006602</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2610039137808222</v>
+        <v>4.300780394746124</v>
       </c>
       <c r="J2" t="n">
-        <v>1.160310701713751</v>
+        <v>10.55978981922417</v>
       </c>
       <c r="K2" t="n">
-        <v>2.508138455589632</v>
+        <v>19.94042246570142</v>
       </c>
       <c r="L2" t="n">
-        <v>4.180237967355347</v>
+        <v>31.57792675593625</v>
       </c>
       <c r="M2" t="n">
-        <v>6.040770853278587</v>
+        <v>44.52689258584102</v>
       </c>
       <c r="N2" t="n">
-        <v>7.931409106423311</v>
+        <v>57.68538622060062</v>
       </c>
       <c r="O2" t="n">
-        <v>9.716685196678943</v>
+        <v>70.1105786289545</v>
       </c>
       <c r="P2" t="n">
-        <v>11.24037703589</v>
+        <v>80.71519288249841</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.38460615143388</v>
+        <v>88.67881654691294</v>
       </c>
       <c r="R2" t="n">
-        <v>13.05019568904111</v>
+        <v>93.31119700330102</v>
       </c>
       <c r="S2" t="n">
-        <v>13.05019568904111</v>
+        <v>93.31119700330102</v>
       </c>
       <c r="T2" t="n">
-        <v>13.05019568904111</v>
+        <v>93.31119700330102</v>
       </c>
       <c r="U2" t="n">
-        <v>13.05019568904111</v>
+        <v>93.31119700330102</v>
       </c>
       <c r="V2" t="n">
-        <v>13.05019568904111</v>
+        <v>93.31119700330102</v>
       </c>
       <c r="W2" t="n">
-        <v>13.05019568904111</v>
+        <v>93.31119700330102</v>
       </c>
       <c r="X2" t="n">
-        <v>13.05019568904111</v>
+        <v>93.31119700330102</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.05019568904111</v>
+        <v>93.31119700330102</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.556281633977864</v>
+        <v>66.55964295403795</v>
       </c>
       <c r="C3" t="n">
-        <v>9.556281633977864</v>
+        <v>66.55964295403795</v>
       </c>
       <c r="D3" t="n">
-        <v>9.556281633977864</v>
+        <v>66.55964295403795</v>
       </c>
       <c r="E3" t="n">
-        <v>6.852011837538958</v>
+        <v>48.99309111345038</v>
       </c>
       <c r="F3" t="n">
-        <v>3.55650787565989</v>
+        <v>25.4296575267582</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.86622394006602</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.86622394006602</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4561956203818616</v>
+        <v>3.224722227401284</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9918165824064465</v>
+        <v>6.952545362113248</v>
       </c>
       <c r="K3" t="n">
-        <v>1.907278118958099</v>
+        <v>13.32398885826897</v>
       </c>
       <c r="L3" t="n">
-        <v>3.138229129822361</v>
+        <v>21.89118092381447</v>
       </c>
       <c r="M3" t="n">
-        <v>4.574690899292686</v>
+        <v>31.88868997596201</v>
       </c>
       <c r="N3" t="n">
-        <v>6.049171537475494</v>
+        <v>42.15080334420326</v>
       </c>
       <c r="O3" t="n">
-        <v>7.398033258238116</v>
+        <v>51.53863220956327</v>
       </c>
       <c r="P3" t="n">
-        <v>8.480613706900035</v>
+        <v>59.07319251962731</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.204290067271584</v>
+        <v>64.10984655206114</v>
       </c>
       <c r="R3" t="n">
-        <v>9.556281633977864</v>
+        <v>66.55964295403795</v>
       </c>
       <c r="S3" t="n">
-        <v>9.556281633977864</v>
+        <v>66.55964295403795</v>
       </c>
       <c r="T3" t="n">
-        <v>9.556281633977864</v>
+        <v>66.55964295403795</v>
       </c>
       <c r="U3" t="n">
-        <v>9.556281633977864</v>
+        <v>66.55964295403795</v>
       </c>
       <c r="V3" t="n">
-        <v>9.556281633977864</v>
+        <v>66.55964295403795</v>
       </c>
       <c r="W3" t="n">
-        <v>9.556281633977864</v>
+        <v>66.55964295403795</v>
       </c>
       <c r="X3" t="n">
-        <v>9.556281633977864</v>
+        <v>66.55964295403795</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.556281633977864</v>
+        <v>66.55964295403795</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.97287505111693</v>
+        <v>14.75972856215027</v>
       </c>
       <c r="C4" t="n">
-        <v>4.97287505111693</v>
+        <v>14.75972856215027</v>
       </c>
       <c r="D4" t="n">
-        <v>4.97287505111693</v>
+        <v>1.86622394006602</v>
       </c>
       <c r="E4" t="n">
-        <v>3.55650787565989</v>
+        <v>1.86622394006602</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.86622394006602</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.86622394006602</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.86622394006602</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.86622394006602</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5970352923692028</v>
+        <v>4.204940375576666</v>
       </c>
       <c r="K4" t="n">
-        <v>1.149238072150546</v>
+        <v>8.048169904421469</v>
       </c>
       <c r="L4" t="n">
-        <v>1.855867513507673</v>
+        <v>12.96618052372726</v>
       </c>
       <c r="M4" t="n">
-        <v>2.600909182660232</v>
+        <v>18.15153316581419</v>
       </c>
       <c r="N4" t="n">
-        <v>3.328235426170353</v>
+        <v>23.21358971190532</v>
       </c>
       <c r="O4" t="n">
-        <v>4.000038933215762</v>
+        <v>27.88921824981448</v>
       </c>
       <c r="P4" t="n">
-        <v>4.574882891135243</v>
+        <v>31.89002620378562</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.97287505111693</v>
+        <v>34.65997825309623</v>
       </c>
       <c r="R4" t="n">
-        <v>4.97287505111693</v>
+        <v>14.75972856215027</v>
       </c>
       <c r="S4" t="n">
-        <v>4.97287505111693</v>
+        <v>14.75972856215027</v>
       </c>
       <c r="T4" t="n">
-        <v>4.97287505111693</v>
+        <v>14.75972856215027</v>
       </c>
       <c r="U4" t="n">
-        <v>4.97287505111693</v>
+        <v>14.75972856215027</v>
       </c>
       <c r="V4" t="n">
-        <v>4.97287505111693</v>
+        <v>14.75972856215027</v>
       </c>
       <c r="W4" t="n">
-        <v>4.97287505111693</v>
+        <v>14.75972856215027</v>
       </c>
       <c r="X4" t="n">
-        <v>4.97287505111693</v>
+        <v>14.75972856215027</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.97287505111693</v>
+        <v>14.75972856215027</v>
       </c>
     </row>
     <row r="5">
@@ -4546,7 +4546,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D5" t="n">
         <v>56.86656659549116</v>
@@ -4570,19 +4570,19 @@
         <v>18.98581709030266</v>
       </c>
       <c r="K5" t="n">
-        <v>35.56734164176019</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L5" t="n">
-        <v>56.13818908654178</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M5" t="n">
-        <v>79.02722044682884</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N5" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O5" t="n">
-        <v>124.2498119529545</v>
+        <v>124.2498119529546</v>
       </c>
       <c r="P5" t="n">
         <v>142.9948879228476</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117.6594827452864</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="C6" t="n">
-        <v>117.6594827452864</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="D6" t="n">
-        <v>75.92715643465272</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E6" t="n">
-        <v>34.19483012401903</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F6" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G6" t="n">
         <v>3.305200243802188</v>
@@ -4688,10 +4688,10 @@
         <v>117.6594827452864</v>
       </c>
       <c r="X6" t="n">
-        <v>117.6594827452864</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="Y6" t="n">
-        <v>117.6594827452864</v>
+        <v>75.92715643465272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="C7" t="n">
-        <v>61.2725530619707</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D7" t="n">
-        <v>61.2725530619707</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E7" t="n">
-        <v>61.2725530619707</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F7" t="n">
-        <v>61.2725530619707</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G7" t="n">
-        <v>61.2725530619707</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H7" t="n">
-        <v>19.54022675133702</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
@@ -4749,28 +4749,28 @@
         <v>61.2725530619707</v>
       </c>
       <c r="R7" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="S7" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="T7" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="U7" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="V7" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="W7" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="X7" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="Y7" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>124.9146677365444</v>
+        <v>122.8380161568153</v>
       </c>
       <c r="C8" t="n">
-        <v>90.81259896037179</v>
+        <v>88.73594738064263</v>
       </c>
       <c r="D8" t="n">
-        <v>58.94321817522037</v>
+        <v>56.86656659549121</v>
       </c>
       <c r="E8" t="n">
-        <v>29.20887737391961</v>
+        <v>27.13222579419044</v>
       </c>
       <c r="F8" t="n">
-        <v>5.381851823531402</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G8" t="n">
-        <v>5.381851823531402</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H8" t="n">
-        <v>5.381851823531402</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I8" t="n">
-        <v>13.14838421658254</v>
+        <v>7.922179662952712</v>
       </c>
       <c r="J8" t="n">
-        <v>31.14579693006437</v>
+        <v>18.98581709030269</v>
       </c>
       <c r="K8" t="n">
-        <v>58.11925323961314</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L8" t="n">
-        <v>91.58221094777126</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M8" t="n">
-        <v>128.8161990197743</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N8" t="n">
-        <v>166.6526719457184</v>
+        <v>102.2866202642709</v>
       </c>
       <c r="O8" t="n">
-        <v>202.3805804136329</v>
+        <v>124.2498119529546</v>
       </c>
       <c r="P8" t="n">
-        <v>232.8735236966218</v>
+        <v>142.9948879228476</v>
       </c>
       <c r="Q8" t="n">
-        <v>255.7724541923641</v>
+        <v>157.0716593183938</v>
       </c>
       <c r="R8" t="n">
-        <v>269.0925911765701</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S8" t="n">
-        <v>201.1399166370322</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T8" t="n">
-        <v>201.1399166370322</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U8" t="n">
-        <v>201.1399166370322</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V8" t="n">
-        <v>201.1399166370322</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W8" t="n">
-        <v>200.3248660884696</v>
+        <v>164.4449616415468</v>
       </c>
       <c r="X8" t="n">
-        <v>185.2228067081844</v>
+        <v>149.3429022612615</v>
       </c>
       <c r="Y8" t="n">
-        <v>147.1738341810482</v>
+        <v>145.097182601319</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.381851823531402</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C9" t="n">
-        <v>5.381851823531402</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D9" t="n">
-        <v>5.381851823531402</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E9" t="n">
-        <v>5.381851823531402</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F9" t="n">
-        <v>5.381851823531402</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G9" t="n">
-        <v>5.381851823531402</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
-        <v>5.381851823531402</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>9.288133583087932</v>
+        <v>5.706527910441171</v>
       </c>
       <c r="J9" t="n">
-        <v>20.00726930061751</v>
+        <v>12.29595456866669</v>
       </c>
       <c r="K9" t="n">
-        <v>38.32797956069301</v>
+        <v>23.55833427601031</v>
       </c>
       <c r="L9" t="n">
-        <v>62.96243542143771</v>
+        <v>38.70199365651513</v>
       </c>
       <c r="M9" t="n">
-        <v>91.70968347870912</v>
+        <v>56.37392987329654</v>
       </c>
       <c r="N9" t="n">
-        <v>121.2177856519502</v>
+        <v>74.51358965724877</v>
       </c>
       <c r="O9" t="n">
-        <v>148.2119342647735</v>
+        <v>91.1078344893717</v>
       </c>
       <c r="P9" t="n">
-        <v>169.8771183727445</v>
+        <v>104.4261789416173</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.3597201982392</v>
+        <v>113.329139503383</v>
       </c>
       <c r="R9" t="n">
-        <v>191.403965368721</v>
+        <v>117.6594827452864</v>
       </c>
       <c r="S9" t="n">
-        <v>130.0987182957465</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="T9" t="n">
-        <v>73.33452636306932</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="U9" t="n">
-        <v>5.381851823531402</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="V9" t="n">
-        <v>5.381851823531402</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="W9" t="n">
-        <v>5.381851823531402</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X9" t="n">
-        <v>5.381851823531402</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.381851823531402</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>82.62422599926794</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="C10" t="n">
-        <v>14.67155145973003</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="D10" t="n">
-        <v>14.67155145973003</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="E10" t="n">
-        <v>14.67155145973003</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="F10" t="n">
-        <v>14.67155145973003</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="G10" t="n">
-        <v>14.67155145973003</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
-        <v>14.67155145973003</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
-        <v>5.381851823531402</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>12.10669309714848</v>
+        <v>7.439194768028656</v>
       </c>
       <c r="K10" t="n">
-        <v>23.15767309931207</v>
+        <v>14.23261768427069</v>
       </c>
       <c r="L10" t="n">
-        <v>37.29912278283191</v>
+        <v>22.9258601234117</v>
       </c>
       <c r="M10" t="n">
-        <v>52.20929869654919</v>
+        <v>32.09166539295484</v>
       </c>
       <c r="N10" t="n">
-        <v>66.76494395292008</v>
+        <v>41.03952829977035</v>
       </c>
       <c r="O10" t="n">
-        <v>80.2094382466321</v>
+        <v>49.30432794779313</v>
       </c>
       <c r="P10" t="n">
-        <v>91.7135257230628</v>
+        <v>56.37629183493586</v>
       </c>
       <c r="Q10" t="n">
-        <v>99.67835958847195</v>
+        <v>61.2725530619707</v>
       </c>
       <c r="R10" t="n">
-        <v>82.62422599926794</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="S10" t="n">
-        <v>82.62422599926794</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="T10" t="n">
-        <v>82.62422599926794</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="U10" t="n">
-        <v>82.62422599926794</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="V10" t="n">
-        <v>82.62422599926794</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="W10" t="n">
-        <v>82.62422599926794</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="X10" t="n">
-        <v>82.62422599926794</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="Y10" t="n">
-        <v>82.62422599926794</v>
+        <v>42.53724282532548</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>701.7439652528263</v>
+        <v>1580.208008741915</v>
       </c>
       <c r="C11" t="n">
-        <v>701.7439652528263</v>
+        <v>1580.208008741915</v>
       </c>
       <c r="D11" t="n">
-        <v>701.7439652528263</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E11" t="n">
-        <v>701.7439652528263</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F11" t="n">
-        <v>273.8765356620341</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G11" t="n">
-        <v>273.8765356620341</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
         <v>805.4408022867025</v>
@@ -5059,7 +5059,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W11" t="n">
-        <v>1955.47212285877</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X11" t="n">
-        <v>1536.329659438081</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y11" t="n">
-        <v>1128.043535737734</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="12">
@@ -5099,25 +5099,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235846</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5126,10 +5126,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>502.9859604199224</v>
+        <v>183.5674757829923</v>
       </c>
       <c r="C13" t="n">
-        <v>330.4242489031474</v>
+        <v>183.5674757829923</v>
       </c>
       <c r="D13" t="n">
-        <v>164.5462561046701</v>
+        <v>183.5674757829923</v>
       </c>
       <c r="E13" t="n">
-        <v>47.20655154895474</v>
+        <v>183.5674757829923</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
         <v>106.1122152511379</v>
@@ -5226,25 +5226,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S13" t="n">
-        <v>745.2331845165158</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T13" t="n">
-        <v>502.9859604199224</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U13" t="n">
-        <v>502.9859604199224</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="V13" t="n">
-        <v>502.9859604199224</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="W13" t="n">
-        <v>502.9859604199224</v>
+        <v>375.3860945019795</v>
       </c>
       <c r="X13" t="n">
-        <v>502.9859604199224</v>
+        <v>375.3860945019795</v>
       </c>
       <c r="Y13" t="n">
-        <v>502.9859604199224</v>
+        <v>375.3860945019795</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>506.3558941930748</v>
+        <v>1333.78448131411</v>
       </c>
       <c r="C14" t="n">
-        <v>506.3558941930748</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="D14" t="n">
-        <v>506.3558941930748</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E14" t="n">
-        <v>72.58114935137002</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F14" t="n">
-        <v>72.58114935137002</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J14" t="n">
         <v>276.0532770435807</v>
@@ -5284,19 +5284,19 @@
         <v>512.3249274228017</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5317,13 +5317,13 @@
         <v>1738.639935903077</v>
       </c>
       <c r="W14" t="n">
-        <v>1333.784481314111</v>
+        <v>1333.78448131411</v>
       </c>
       <c r="X14" t="n">
-        <v>914.6420178934214</v>
+        <v>1333.78448131411</v>
       </c>
       <c r="Y14" t="n">
-        <v>506.3558941930748</v>
+        <v>1333.78448131411</v>
       </c>
     </row>
     <row r="15">
@@ -5348,13 +5348,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5363,10 +5363,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M16" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N16" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O16" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P16" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q16" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R16" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S16" t="n">
-        <v>889.6597230122815</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T16" t="n">
-        <v>889.6597230122815</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="U16" t="n">
-        <v>851.5802187588204</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="V16" t="n">
-        <v>564.6247106292508</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="W16" t="n">
-        <v>292.5983062155423</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="X16" t="n">
-        <v>47.20655154895474</v>
+        <v>274.6262222348465</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>339.1270151866524</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="C17" t="n">
-        <v>339.1270151866524</v>
+        <v>1347.796903034099</v>
       </c>
       <c r="D17" t="n">
-        <v>339.1270151866524</v>
+        <v>1347.796903034099</v>
       </c>
       <c r="E17" t="n">
-        <v>339.1270151866524</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F17" t="n">
-        <v>339.1270151866524</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
         <v>316.9281030050443</v>
@@ -5518,19 +5518,19 @@
         <v>276.0532770435805</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
         <v>2043.069798152528</v>
@@ -5545,22 +5545,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381563</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="W17" t="n">
-        <v>1592.855172792596</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="X17" t="n">
-        <v>1173.712709371907</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="Y17" t="n">
-        <v>765.4265856715602</v>
+        <v>1785.939375850675</v>
       </c>
     </row>
     <row r="18">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.20655154895473</v>
+        <v>562.353309902451</v>
       </c>
       <c r="C19" t="n">
-        <v>47.20655154895473</v>
+        <v>389.7915983856759</v>
       </c>
       <c r="D19" t="n">
-        <v>47.20655154895473</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E19" t="n">
-        <v>47.20655154895473</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
         <v>47.20655154895473</v>
@@ -5703,22 +5703,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T19" t="n">
-        <v>884.5750960434898</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U19" t="n">
-        <v>606.1884640922327</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V19" t="n">
-        <v>319.2329559626632</v>
+        <v>834.3797143161594</v>
       </c>
       <c r="W19" t="n">
-        <v>47.20655154895473</v>
+        <v>562.353309902451</v>
       </c>
       <c r="X19" t="n">
-        <v>47.20655154895473</v>
+        <v>562.353309902451</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.20655154895473</v>
+        <v>562.353309902451</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1782.900983623584</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C20" t="n">
-        <v>1344.758510807007</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D20" t="n">
         <v>908.8487259814518</v>
@@ -5752,13 +5752,13 @@
         <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435809</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228021</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5770,7 +5770,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447737</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="X20" t="n">
-        <v>1941.185114027047</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="Y20" t="n">
-        <v>1782.900983623584</v>
+        <v>1745.473006065472</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>1487.064164512932</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S21" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T21" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U21" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V21" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>458.2776763869462</v>
+        <v>183.5674757829923</v>
       </c>
       <c r="C22" t="n">
-        <v>458.2776763869462</v>
+        <v>183.5674757829923</v>
       </c>
       <c r="D22" t="n">
-        <v>412.4039024826535</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E22" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F22" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
         <v>202.912315818696</v>
@@ -5922,40 +5922,40 @@
         <v>457.3875097755234</v>
       </c>
       <c r="N22" t="n">
-        <v>584.8864215794129</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O22" t="n">
-        <v>702.6523029271747</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P22" t="n">
-        <v>803.4213591048582</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q22" t="n">
-        <v>873.1886303355138</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R22" t="n">
-        <v>889.6597230122812</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S22" t="n">
-        <v>745.2331845165157</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T22" t="n">
-        <v>745.2331845165157</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U22" t="n">
-        <v>745.2331845165157</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="V22" t="n">
-        <v>458.2776763869462</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="W22" t="n">
-        <v>458.2776763869462</v>
+        <v>375.3860945019795</v>
       </c>
       <c r="X22" t="n">
-        <v>458.2776763869462</v>
+        <v>375.3860945019795</v>
       </c>
       <c r="Y22" t="n">
-        <v>458.2776763869462</v>
+        <v>375.3860945019795</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1782.900983623584</v>
+        <v>1190.980360647176</v>
       </c>
       <c r="C23" t="n">
-        <v>1344.758510807007</v>
+        <v>752.8378878305998</v>
       </c>
       <c r="D23" t="n">
-        <v>908.8487259814518</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E23" t="n">
-        <v>475.073981139747</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K23" t="n">
         <v>512.3249274228015</v>
@@ -6013,28 +6013,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V23" t="n">
-        <v>1997.710627381563</v>
+        <v>2022.135385721051</v>
       </c>
       <c r="W23" t="n">
-        <v>1997.710627381563</v>
+        <v>1617.279931132084</v>
       </c>
       <c r="X23" t="n">
-        <v>1997.710627381563</v>
+        <v>1617.279931132084</v>
       </c>
       <c r="Y23" t="n">
-        <v>1997.710627381563</v>
+        <v>1617.279931132084</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M24" t="n">
-        <v>1487.064164512932</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N24" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P24" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q24" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R24" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S24" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T24" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U24" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V24" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X24" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y24" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>393.6716093364612</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C25" t="n">
-        <v>393.6716093364612</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D25" t="n">
-        <v>393.6716093364612</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E25" t="n">
-        <v>223.9136055871985</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>326.7831174369939</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M25" t="n">
-        <v>457.3875097755233</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N25" t="n">
-        <v>584.8864215794127</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O25" t="n">
-        <v>702.6523029271746</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P25" t="n">
-        <v>803.421359104858</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q25" t="n">
-        <v>873.1886303355136</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R25" t="n">
-        <v>889.659723012281</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S25" t="n">
-        <v>889.659723012281</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T25" t="n">
-        <v>889.659723012281</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U25" t="n">
-        <v>889.659723012281</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V25" t="n">
-        <v>602.7042148827115</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="W25" t="n">
-        <v>602.7042148827115</v>
+        <v>339.2466866473159</v>
       </c>
       <c r="X25" t="n">
-        <v>585.4902280554484</v>
+        <v>274.6262222348465</v>
       </c>
       <c r="Y25" t="n">
-        <v>585.4902280554484</v>
+        <v>47.20655154895473</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1624.755105488881</v>
+        <v>1087.577165952531</v>
       </c>
       <c r="C26" t="n">
-        <v>1186.612632672305</v>
+        <v>1087.577165952531</v>
       </c>
       <c r="D26" t="n">
-        <v>750.7028478467491</v>
+        <v>651.6673811269752</v>
       </c>
       <c r="E26" t="n">
-        <v>316.9281030050443</v>
+        <v>217.8926362852704</v>
       </c>
       <c r="F26" t="n">
-        <v>316.9281030050443</v>
+        <v>217.8926362852704</v>
       </c>
       <c r="G26" t="n">
-        <v>316.9281030050443</v>
+        <v>217.8926362852704</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895473</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W26" t="n">
-        <v>2360.327577447737</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="X26" t="n">
-        <v>2033.041229189228</v>
+        <v>1495.863289652877</v>
       </c>
       <c r="Y26" t="n">
-        <v>1624.755105488881</v>
+        <v>1087.577165952531</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.20655154895473</v>
+        <v>517.9903164848912</v>
       </c>
       <c r="C28" t="n">
-        <v>47.20655154895473</v>
+        <v>345.4286049681161</v>
       </c>
       <c r="D28" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="E28" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
         <v>47.20655154895473</v>
@@ -6411,25 +6411,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S28" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T28" t="n">
-        <v>857.9404462963687</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U28" t="n">
-        <v>579.5538143451117</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V28" t="n">
-        <v>292.5983062155423</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W28" t="n">
-        <v>292.5983062155423</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X28" t="n">
-        <v>47.20655154895473</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.20655154895473</v>
+        <v>517.9903164848912</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1782.900983623584</v>
+        <v>921.4750880558159</v>
       </c>
       <c r="C29" t="n">
-        <v>1344.758510807007</v>
+        <v>483.3326152392393</v>
       </c>
       <c r="D29" t="n">
-        <v>908.8487259814518</v>
+        <v>47.42283041368376</v>
       </c>
       <c r="E29" t="n">
-        <v>475.073981139747</v>
+        <v>47.42283041368376</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.42283041368376</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001349</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S29" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T29" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V29" t="n">
-        <v>1957.24425759636</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W29" t="n">
-        <v>1957.24425759636</v>
+        <v>1340.617551476505</v>
       </c>
       <c r="X29" t="n">
-        <v>1957.24425759636</v>
+        <v>921.4750880558159</v>
       </c>
       <c r="Y29" t="n">
-        <v>1782.900983623584</v>
+        <v>921.4750880558159</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I30" t="n">
         <v>81.42328772043084</v>
@@ -6545,19 +6545,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M30" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P30" t="n">
         <v>1488.088567599445</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="C31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="D31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J31" t="n">
         <v>106.1122152511378</v>
@@ -6633,40 +6633,40 @@
         <v>457.3875097755234</v>
       </c>
       <c r="N31" t="n">
-        <v>584.8864215794129</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O31" t="n">
-        <v>702.6523029271747</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P31" t="n">
-        <v>803.4213591048582</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q31" t="n">
-        <v>873.1886303355138</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R31" t="n">
-        <v>889.6597230122812</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S31" t="n">
-        <v>889.6597230122812</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T31" t="n">
-        <v>857.9404462963687</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U31" t="n">
-        <v>579.5538143451117</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V31" t="n">
-        <v>292.5983062155423</v>
+        <v>484.4169249345294</v>
       </c>
       <c r="W31" t="n">
-        <v>292.5983062155423</v>
+        <v>484.4169249345294</v>
       </c>
       <c r="X31" t="n">
-        <v>47.20655154895473</v>
+        <v>239.0251702679419</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.20655154895473</v>
+        <v>239.0251702679419</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1782.900983623584</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="C32" t="n">
-        <v>1344.758510807007</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="D32" t="n">
-        <v>908.8487259814518</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G32" t="n">
         <v>47.20655154895473</v>
@@ -6730,22 +6730,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T32" t="n">
-        <v>2209.200554108492</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U32" t="n">
-        <v>2209.200554108492</v>
+        <v>2064.622209647479</v>
       </c>
       <c r="V32" t="n">
-        <v>2209.200554108492</v>
+        <v>1702.005259581306</v>
       </c>
       <c r="W32" t="n">
-        <v>2209.200554108492</v>
+        <v>1702.005259581306</v>
       </c>
       <c r="X32" t="n">
-        <v>2209.200554108492</v>
+        <v>1282.862796160616</v>
       </c>
       <c r="Y32" t="n">
-        <v>2209.200554108492</v>
+        <v>874.5766724602698</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
         <v>551.5786779960906</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.5262668149925</v>
+        <v>216.0304522903529</v>
       </c>
       <c r="C34" t="n">
-        <v>216.9645552982175</v>
+        <v>216.0304522903529</v>
       </c>
       <c r="D34" t="n">
-        <v>216.9645552982175</v>
+        <v>216.0304522903529</v>
       </c>
       <c r="E34" t="n">
-        <v>47.20655154895473</v>
+        <v>216.0304522903529</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H34" t="n">
         <v>47.20655154895473</v>
@@ -6858,7 +6858,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
         <v>202.912315818696</v>
@@ -6870,40 +6870,40 @@
         <v>457.3875097755234</v>
       </c>
       <c r="N34" t="n">
-        <v>584.8864215794129</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O34" t="n">
-        <v>702.6523029271747</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P34" t="n">
-        <v>803.4213591048582</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q34" t="n">
-        <v>873.1886303355138</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R34" t="n">
-        <v>889.6597230122812</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S34" t="n">
-        <v>889.6597230122812</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T34" t="n">
-        <v>667.9128987662496</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="U34" t="n">
-        <v>389.5262668149925</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="V34" t="n">
-        <v>389.5262668149925</v>
+        <v>216.0304522903529</v>
       </c>
       <c r="W34" t="n">
-        <v>389.5262668149925</v>
+        <v>216.0304522903529</v>
       </c>
       <c r="X34" t="n">
-        <v>389.5262668149925</v>
+        <v>216.0304522903529</v>
       </c>
       <c r="Y34" t="n">
-        <v>389.5262668149925</v>
+        <v>216.0304522903529</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1941.185114027047</v>
+        <v>485.3490243655314</v>
       </c>
       <c r="C35" t="n">
-        <v>1503.04264121047</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D35" t="n">
-        <v>1067.132856384915</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E35" t="n">
-        <v>633.3581115432098</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F35" t="n">
-        <v>205.4906819524176</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
@@ -6943,7 +6943,7 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6961,28 +6961,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447736</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V35" t="n">
-        <v>2360.327577447736</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W35" t="n">
-        <v>2360.327577447736</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X35" t="n">
-        <v>1941.185114027047</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y35" t="n">
-        <v>1941.185114027047</v>
+        <v>673.2607362976731</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
         <v>81.42328772043084</v>
@@ -7019,22 +7019,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
         <v>1614.947661807679</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.0941331591162</v>
+        <v>470.4214336074024</v>
       </c>
       <c r="C37" t="n">
-        <v>584.0941331591162</v>
+        <v>297.8597220906274</v>
       </c>
       <c r="D37" t="n">
-        <v>584.0941331591162</v>
+        <v>297.8597220906274</v>
       </c>
       <c r="E37" t="n">
-        <v>584.0941331591162</v>
+        <v>297.8597220906274</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3870791208724</v>
+        <v>297.8597220906274</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>326.7831174369939</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M37" t="n">
-        <v>457.3875097755233</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N37" t="n">
-        <v>584.8864215794127</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O37" t="n">
-        <v>702.6523029271746</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P37" t="n">
-        <v>803.421359104858</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q37" t="n">
-        <v>873.1886303355136</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R37" t="n">
-        <v>889.659723012281</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S37" t="n">
-        <v>745.2331845165155</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T37" t="n">
-        <v>584.0941331591162</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U37" t="n">
-        <v>584.0941331591162</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V37" t="n">
-        <v>584.0941331591162</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W37" t="n">
-        <v>584.0941331591162</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X37" t="n">
-        <v>584.0941331591162</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="Y37" t="n">
-        <v>584.0941331591162</v>
+        <v>662.2400523263896</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1284.092038121989</v>
+        <v>442.67327377434</v>
       </c>
       <c r="C38" t="n">
-        <v>1284.092038121989</v>
+        <v>442.67327377434</v>
       </c>
       <c r="D38" t="n">
-        <v>908.8487259814518</v>
+        <v>442.67327377434</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>442.67327377434</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001348</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435801</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K38" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867016</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
@@ -7198,28 +7198,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U38" t="n">
-        <v>2108.089956131646</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V38" t="n">
-        <v>2108.089956131646</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="W38" t="n">
-        <v>1703.234501542679</v>
+        <v>1696.401431380284</v>
       </c>
       <c r="X38" t="n">
-        <v>1284.092038121989</v>
+        <v>1277.258967959594</v>
       </c>
       <c r="Y38" t="n">
-        <v>1284.092038121989</v>
+        <v>868.9728442592478</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R39" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S39" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T39" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U39" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V39" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>223.9136055871985</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C40" t="n">
-        <v>223.9136055871985</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D40" t="n">
-        <v>223.9136055871985</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E40" t="n">
-        <v>223.9136055871985</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>326.7831174369939</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M40" t="n">
-        <v>457.3875097755233</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N40" t="n">
-        <v>584.8864215794127</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O40" t="n">
-        <v>702.6523029271746</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P40" t="n">
-        <v>803.421359104858</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q40" t="n">
-        <v>873.1886303355136</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R40" t="n">
-        <v>889.659723012281</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S40" t="n">
-        <v>889.659723012281</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T40" t="n">
-        <v>729.7199082243473</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U40" t="n">
-        <v>451.3332762730902</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V40" t="n">
-        <v>451.3332762730902</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="W40" t="n">
-        <v>451.3332762730902</v>
+        <v>339.2466866473159</v>
       </c>
       <c r="X40" t="n">
-        <v>451.3332762730902</v>
+        <v>339.2466866473159</v>
       </c>
       <c r="Y40" t="n">
-        <v>223.9136055871985</v>
+        <v>111.8270159614242</v>
       </c>
     </row>
     <row r="41">
@@ -7402,61 +7402,61 @@
         <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.406501800135</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435803</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867018</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2148.556325916848</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>1889.485634438362</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>1734.650987786883</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W41" t="n">
-        <v>1734.650987786883</v>
+        <v>1727.493880722664</v>
       </c>
       <c r="X41" t="n">
-        <v>1734.650987786883</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="Y41" t="n">
-        <v>1734.650987786883</v>
+        <v>1308.351417301975</v>
       </c>
     </row>
     <row r="42">
@@ -7469,25 +7469,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
@@ -7496,10 +7496,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="C43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
         <v>202.912315818696</v>
@@ -7602,13 +7602,13 @@
         <v>889.6597230122813</v>
       </c>
       <c r="U43" t="n">
-        <v>889.6597230122813</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V43" t="n">
-        <v>711.8365956204211</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="W43" t="n">
-        <v>711.8365956204211</v>
+        <v>466.4448409538336</v>
       </c>
       <c r="X43" t="n">
         <v>466.4448409538336</v>
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2148.556325916849</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="C44" t="n">
-        <v>1710.413853100272</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="D44" t="n">
-        <v>1274.504068274717</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E44" t="n">
-        <v>840.7293234330118</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F44" t="n">
-        <v>412.8618938422196</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L44" t="n">
         <v>805.440802286702</v>
@@ -7678,22 +7678,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2148.556325916849</v>
+        <v>2170.841320049986</v>
       </c>
       <c r="U44" t="n">
-        <v>2148.556325916849</v>
+        <v>1911.7706285715</v>
       </c>
       <c r="V44" t="n">
-        <v>2148.556325916849</v>
+        <v>1549.153678505326</v>
       </c>
       <c r="W44" t="n">
-        <v>2148.556325916849</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="X44" t="n">
-        <v>2148.556325916849</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="Y44" t="n">
-        <v>2148.556325916849</v>
+        <v>1144.298223916359</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
         <v>341.0245550495863</v>
@@ -7718,13 +7718,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H45" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.20655154895473</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="C46" t="n">
-        <v>47.20655154895473</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="D46" t="n">
-        <v>47.20655154895473</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="E46" t="n">
-        <v>47.20655154895473</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895473</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="G46" t="n">
         <v>47.20655154895473</v>
@@ -7836,22 +7836,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T46" t="n">
-        <v>857.9404462963687</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U46" t="n">
-        <v>579.5538143451117</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V46" t="n">
-        <v>292.5983062155423</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W46" t="n">
-        <v>292.5983062155423</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="X46" t="n">
-        <v>47.20655154895473</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.20655154895473</v>
+        <v>52.2911785177464</v>
       </c>
     </row>
   </sheetData>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>30.88739499768407</v>
+        <v>10.43324883758566</v>
       </c>
       <c r="D2" t="n">
-        <v>28.28813805503963</v>
+        <v>8.222887726474649</v>
       </c>
       <c r="E2" t="n">
-        <v>26.17444847102748</v>
+        <v>7.598647342394301</v>
       </c>
       <c r="F2" t="n">
-        <v>20.32620637262405</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>155.9134314279261</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>42.62105166958011</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>51.89411620161196</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>102.4070022042785</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
@@ -23436,7 +23436,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -23497,7 +23497,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>408.5823147163966</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23506,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>370.3868125829264</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>237.9040564208179</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>16.86169631669645</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>227.9733050667258</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>373.5307413475255</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23892,16 +23892,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
@@ -23943,13 +23943,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>234.7909711565238</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>229.3587444391131</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>27.53958558528927</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>247.5019733639143</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>118.8041767052428</v>
+        <v>29.22189787879529</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -24144,10 +24144,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>209.3750274596599</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
@@ -24265,10 +24265,10 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>24.18051075609293</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -24372,10 +24372,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.0937685836068</v>
@@ -24384,7 +24384,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.8959901609311</v>
+        <v>178.9635773515769</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>98.04511205257617</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
@@ -24505,10 +24505,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>90.93755401055898</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -24618,7 +24618,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>208.4226679068739</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0.1750346277244148</v>
       </c>
     </row>
     <row r="29">
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>395.2935483312359</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>231.6034212302947</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -24858,7 +24858,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>208.422667906874</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>158.4983485830438</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>60.03778590972664</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>173.3852094570254</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>138.8249417783544</v>
       </c>
       <c r="G34" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>20.29539585205608</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>236.0039799672384</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>238.8063753078894</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -25323,16 +25323,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>45.96774976182812</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>80.29709101180207</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -25380,7 +25380,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>60.05980795816771</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>32.0767002917529</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>125.9261727634525</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -25560,7 +25560,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
@@ -25569,7 +25569,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>81.48433521557301</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>205.7044803805466</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>280.4967699518855</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25842,16 +25842,16 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>108.0410569303322</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>125.9261727634525</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>33.50887553698544</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>22.06214419180571</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26037,7 +26037,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>158.059987884503</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
@@ -26076,7 +26076,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>208.4226679068739</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>603051.3432122169</v>
+        <v>610179.491929127</v>
       </c>
     </row>
     <row r="3">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>321599.8855372853</v>
+        <v>321599.8855372854</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>321599.8855372853</v>
+        <v>321599.8855372854</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>321599.8855372853</v>
+        <v>321599.8855372854</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>321599.8855372853</v>
+        <v>321599.8855372854</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>321599.8855372853</v>
+        <v>321599.8855372854</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>321599.8855372853</v>
+        <v>321599.8855372854</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>314635.4834150696</v>
+        <v>318354.5175282401</v>
       </c>
       <c r="C2" t="n">
-        <v>321688.391934245</v>
+        <v>321688.3919342449</v>
       </c>
       <c r="D2" t="n">
         <v>321688.391934245</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3658.813870389771</v>
+        <v>25672.80150168997</v>
       </c>
       <c r="C3" t="n">
-        <v>39694.34694747527</v>
+        <v>18763.31828088699</v>
       </c>
       <c r="D3" t="n">
-        <v>25642.93946003411</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>488243.5714067373</v>
+        <v>512485.5095559817</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>853.6263502158978</v>
+        <v>6103.578707182923</v>
       </c>
       <c r="K3" t="n">
-        <v>9793.484013311734</v>
+        <v>4629.330666749595</v>
       </c>
       <c r="L3" t="n">
-        <v>6569.772812065584</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130286.0308796799</v>
+        <v>136754.9043831154</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298397.3305546049</v>
+        <v>296522.4331491437</v>
       </c>
       <c r="C4" t="n">
         <v>294841.7084545743</v>
       </c>
       <c r="D4" t="n">
-        <v>287839.3266282644</v>
+        <v>294841.7084545743</v>
       </c>
       <c r="E4" t="n">
         <v>414.2905444231689</v>
@@ -26453,13 +26453,13 @@
         <v>414.2905444231689</v>
       </c>
       <c r="N4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="O4" t="n">
         <v>414.2905444231689</v>
       </c>
       <c r="P4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33884.00183384596</v>
+        <v>35449.8699541329</v>
       </c>
       <c r="C5" t="n">
         <v>36853.56981021012</v>
       </c>
       <c r="D5" t="n">
-        <v>38879.31235789483</v>
+        <v>36853.56981021012</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963781</v>
@@ -26508,7 +26508,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21304.66284377103</v>
+        <v>-39304.4782200848</v>
       </c>
       <c r="C6" t="n">
-        <v>-49701.23327801473</v>
+        <v>-28770.20461142655</v>
       </c>
       <c r="D6" t="n">
-        <v>-30673.18651194834</v>
+        <v>-10006.8863305394</v>
       </c>
       <c r="E6" t="n">
-        <v>-366917.6985326493</v>
+        <v>-391800.8747956692</v>
       </c>
       <c r="F6" t="n">
-        <v>121325.872874088</v>
+        <v>120684.6347603125</v>
       </c>
       <c r="G6" t="n">
-        <v>121325.8728740879</v>
+        <v>120684.6347603125</v>
       </c>
       <c r="H6" t="n">
-        <v>121325.8728740879</v>
+        <v>120684.6347603125</v>
       </c>
       <c r="I6" t="n">
-        <v>121325.8728740879</v>
+        <v>120684.6347603125</v>
       </c>
       <c r="J6" t="n">
-        <v>120472.2465238721</v>
+        <v>114581.0560531296</v>
       </c>
       <c r="K6" t="n">
-        <v>111532.3888607762</v>
+        <v>116055.3040935629</v>
       </c>
       <c r="L6" t="n">
-        <v>114756.1000620224</v>
+        <v>120684.6347603125</v>
       </c>
       <c r="M6" t="n">
-        <v>-8960.158005592028</v>
+        <v>-16070.26962280291</v>
       </c>
       <c r="N6" t="n">
-        <v>121325.8728740879</v>
+        <v>120684.6347603125</v>
       </c>
       <c r="O6" t="n">
-        <v>121325.8728740879</v>
+        <v>120684.6347603126</v>
       </c>
       <c r="P6" t="n">
-        <v>121325.8728740879</v>
+        <v>120684.6347603125</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.662332998740293</v>
+        <v>18.5293467744371</v>
       </c>
       <c r="C3" t="n">
         <v>32.7531020605716</v>
       </c>
       <c r="D3" t="n">
-        <v>53.28004458765901</v>
+        <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932211</v>
@@ -26773,13 +26773,13 @@
         <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.262548922260277</v>
+        <v>23.32779925082525</v>
       </c>
       <c r="C4" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="D4" t="n">
-        <v>67.27314779414253</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619341</v>
@@ -26810,25 +26810,25 @@
         <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="L4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
         <v>590.0818943619341</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.662332998740293</v>
+        <v>18.5293467744371</v>
       </c>
       <c r="C3" t="n">
-        <v>30.09076906183131</v>
+        <v>14.22375528613449</v>
       </c>
       <c r="D3" t="n">
-        <v>20.52694252708741</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>413.4218835055622</v>
+        <v>433.9488260326495</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.262548922260277</v>
+        <v>23.32779925082525</v>
       </c>
       <c r="C4" t="n">
-        <v>38.05245412526707</v>
+        <v>17.98720379670209</v>
       </c>
       <c r="D4" t="n">
-        <v>25.95814474661518</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>522.8087465677917</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.262548922260391</v>
+        <v>23.32779925082525</v>
       </c>
       <c r="K4" t="n">
-        <v>38.05245412526707</v>
+        <v>17.98720379670198</v>
       </c>
       <c r="L4" t="n">
-        <v>25.95814474661518</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.8087465677916</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.262548922260277</v>
+        <v>23.32779925082525</v>
       </c>
       <c r="K4" t="n">
-        <v>38.05245412526707</v>
+        <v>17.98720379670209</v>
       </c>
       <c r="L4" t="n">
-        <v>25.95814474661518</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.8087465677917</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3731502167427</v>
+        <v>397.3093632266896</v>
       </c>
       <c r="H2" t="n">
-        <v>286.1292424873029</v>
+        <v>285.4759839754221</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.5714639696243</v>
+        <v>81.11791793379037</v>
       </c>
       <c r="T2" t="n">
-        <v>217.819703146337</v>
+        <v>217.5404755973798</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6292234284552</v>
+        <v>256.624120469251</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27466,16 +27466,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>90.5019834278413</v>
+        <v>75.78832420413411</v>
       </c>
       <c r="F3" t="n">
-        <v>79.28745107773972</v>
+        <v>59.22220074917475</v>
       </c>
       <c r="G3" t="n">
-        <v>81.26296338663548</v>
+        <v>61.16358400957184</v>
       </c>
       <c r="H3" t="n">
-        <v>41.26298946135317</v>
+        <v>40.93337470348445</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.71451543789636</v>
+        <v>62.08058333091451</v>
       </c>
       <c r="T3" t="n">
-        <v>128.8537753079323</v>
+        <v>128.7162112922732</v>
       </c>
       <c r="U3" t="n">
-        <v>174.5728047847957</v>
+        <v>174.5705594526576</v>
       </c>
       <c r="V3" t="n">
         <v>197.1263427586206</v>
@@ -27542,22 +27542,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>151.4546432946291</v>
       </c>
       <c r="E4" t="n">
-        <v>166.6582202080676</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>171.6774345756011</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9305612960722</v>
+        <v>163.90194864828</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4604679489429</v>
+        <v>138.2060754985719</v>
       </c>
       <c r="I4" t="n">
-        <v>87.62897272389382</v>
+        <v>86.76851237028718</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.5652879271376</v>
+        <v>157.0666475106129</v>
       </c>
       <c r="T4" t="n">
-        <v>243.400138899798</v>
+        <v>243.2778848592312</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6484088706061</v>
+        <v>275.6468481807266</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -27700,16 +27700,16 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>52.82438291738493</v>
+        <v>63.55865238349762</v>
       </c>
       <c r="E6" t="n">
-        <v>51.86420747878847</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>51.96926641858533</v>
+        <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>84.46078876789484</v>
+        <v>43.14578572036749</v>
       </c>
       <c r="H6" t="n">
         <v>40.6378963153706</v>
@@ -27760,7 +27760,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
-        <v>153.3187614035088</v>
+        <v>112.0037583559815</v>
       </c>
       <c r="Y6" t="n">
         <v>125.2209214285714</v>
@@ -27776,7 +27776,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>131.9963722458993</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -27791,10 +27791,10 @@
         <v>163.8762992535017</v>
       </c>
       <c r="H7" t="n">
-        <v>96.66302601383404</v>
+        <v>137.9780290613614</v>
       </c>
       <c r="I7" t="n">
-        <v>69.92448887395011</v>
+        <v>85.99716511640959</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>156.6196485125224</v>
@@ -27864,13 +27864,13 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>399.9999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>397.169661928948</v>
+        <v>397.2521823009162</v>
       </c>
       <c r="H8" t="n">
-        <v>284.045268059926</v>
+        <v>284.8903798193452</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>10.66132681736122</v>
+        <v>79.8149075877289</v>
       </c>
       <c r="T8" t="n">
-        <v>216.928933166516</v>
+        <v>217.2901660948067</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6129443654316</v>
+        <v>256.6195459951891</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>366.5347796614783</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -27946,10 +27946,10 @@
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>84.41663647642147</v>
+        <v>43.14578572036749</v>
       </c>
       <c r="H9" t="n">
-        <v>40.21147813193054</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>20.19730100379491</v>
       </c>
       <c r="T9" t="n">
-        <v>72.21837928561762</v>
+        <v>128.5928940176698</v>
       </c>
       <c r="U9" t="n">
-        <v>107.2924941069378</v>
+        <v>143.9878130756836</v>
       </c>
       <c r="V9" t="n">
         <v>197.1263427586206</v>
@@ -28013,7 +28013,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>103.5629466074648</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -28025,13 +28025,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.839283455502</v>
+        <v>125.0365770977937</v>
       </c>
       <c r="H10" t="n">
-        <v>137.6489249664189</v>
+        <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
-        <v>75.68719647854665</v>
+        <v>85.99716511640959</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>155.9745641055646</v>
+        <v>156.6196485125224</v>
       </c>
       <c r="T10" t="n">
-        <v>243.0101335809981</v>
+        <v>243.1682919906331</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6434300793023</v>
+        <v>275.6454491228296</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01070284622609162</v>
+        <v>0.07448983627914409</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1096105239129608</v>
+        <v>0.7628690357937845</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>2.871769413151705</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9083906948817446</v>
+        <v>6.322231741897011</v>
       </c>
       <c r="K2" t="n">
-        <v>1.361442175632203</v>
+        <v>9.475386511593182</v>
       </c>
       <c r="L2" t="n">
-        <v>1.688989405823955</v>
+        <v>11.75505483862104</v>
       </c>
       <c r="M2" t="n">
-        <v>1.879326147397212</v>
+        <v>13.07976346455027</v>
       </c>
       <c r="N2" t="n">
-        <v>1.909735609237095</v>
+        <v>13.29140771187839</v>
       </c>
       <c r="O2" t="n">
-        <v>1.803309182076396</v>
+        <v>12.55069940237765</v>
       </c>
       <c r="P2" t="n">
-        <v>1.539082665869759</v>
+        <v>10.71173156923628</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.155786985397852</v>
+        <v>8.044064307489426</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6723126642497284</v>
+        <v>4.679172178169789</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2438911083770631</v>
+        <v>1.697437144210997</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.3260792583119534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.005959186902331525</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.03985557608086471</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05530620059647288</v>
+        <v>0.3849209584651935</v>
       </c>
       <c r="I3" t="n">
-        <v>0.19716334000105</v>
+        <v>1.372220492257842</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5410312747723081</v>
+        <v>3.765477913850469</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9247086227794469</v>
+        <v>6.435801511268405</v>
       </c>
       <c r="L3" t="n">
-        <v>1.243384859458851</v>
+        <v>8.653729359136877</v>
       </c>
       <c r="M3" t="n">
-        <v>1.450971484313459</v>
+        <v>10.09849399206822</v>
       </c>
       <c r="N3" t="n">
-        <v>1.489374382002836</v>
+        <v>10.36577107903157</v>
       </c>
       <c r="O3" t="n">
-        <v>1.362486586628912</v>
+        <v>9.482655419555563</v>
       </c>
       <c r="P3" t="n">
-        <v>1.093515604709008</v>
+        <v>7.610666979862668</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7309862225975235</v>
+        <v>5.087529325690732</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3555470370770528</v>
+        <v>2.474541820178601</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.7402998451862367</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02308192477209743</v>
+        <v>0.1606459404312046</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.002622077373741101</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.03341357615062428</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.2970770679573688</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1443770091775884</v>
+        <v>1.004837362784229</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3394256349377582</v>
+        <v>2.362339833849137</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5577805856377201</v>
+        <v>3.882050029136166</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7137671124819468</v>
+        <v>4.96768749424827</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7525673425783419</v>
+        <v>5.23772994150195</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7346729732425471</v>
+        <v>5.113188430395081</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6785894010559685</v>
+        <v>4.72285710899915</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5806504625449318</v>
+        <v>4.041220155526412</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4020122828097842</v>
+        <v>2.797931362940003</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2158671969142538</v>
+        <v>1.502395887645342</v>
       </c>
       <c r="S4" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.5823075043704248</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02051305753127766</v>
+        <v>0.1427670980981219</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.001822558699124963</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2141911340207396</v>
+        <v>0.131670762052549</v>
       </c>
       <c r="H8" t="n">
-        <v>2.1935849512899</v>
+        <v>1.348473191870668</v>
       </c>
       <c r="I8" t="n">
-        <v>8.257603694334572</v>
+        <v>5.076237054030902</v>
       </c>
       <c r="J8" t="n">
-        <v>18.17920476109276</v>
+        <v>11.17539134075754</v>
       </c>
       <c r="K8" t="n">
-        <v>27.24591546419067</v>
+        <v>16.74901469844195</v>
       </c>
       <c r="L8" t="n">
-        <v>33.80096738197789</v>
+        <v>20.77863378260765</v>
       </c>
       <c r="M8" t="n">
-        <v>37.61008896161922</v>
+        <v>23.12023369725967</v>
       </c>
       <c r="N8" t="n">
-        <v>38.21865952115565</v>
+        <v>23.49434324994148</v>
       </c>
       <c r="O8" t="n">
-        <v>36.08879643223692</v>
+        <v>22.18504210978144</v>
       </c>
       <c r="P8" t="n">
-        <v>30.8009528110999</v>
+        <v>18.93442017160913</v>
       </c>
       <c r="Q8" t="n">
-        <v>23.13023282398216</v>
+        <v>14.21896100560222</v>
       </c>
       <c r="R8" t="n">
-        <v>13.4546838224303</v>
+        <v>8.271063506783442</v>
       </c>
       <c r="S8" t="n">
-        <v>4.880880466497608</v>
+        <v>3.000447490272464</v>
       </c>
       <c r="T8" t="n">
-        <v>0.937621689175788</v>
+        <v>0.5763887608850338</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01713529072165916</v>
+        <v>0.01053366096420392</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1146023600564741</v>
+        <v>0.07045006858311627</v>
       </c>
       <c r="H9" t="n">
-        <v>1.106817530019105</v>
+        <v>0.6803993465790441</v>
       </c>
       <c r="I9" t="n">
-        <v>3.945739151067201</v>
+        <v>2.425583501655538</v>
       </c>
       <c r="J9" t="n">
-        <v>10.82740981568644</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K9" t="n">
-        <v>18.50576793947021</v>
+        <v>11.37614111852891</v>
       </c>
       <c r="L9" t="n">
-        <v>24.88328874822698</v>
+        <v>15.29662563687356</v>
       </c>
       <c r="M9" t="n">
-        <v>29.03762430027416</v>
+        <v>17.85044062301152</v>
       </c>
       <c r="N9" t="n">
-        <v>29.80616381135464</v>
+        <v>18.32288867065882</v>
       </c>
       <c r="O9" t="n">
-        <v>27.26681678062961</v>
+        <v>16.76186346679082</v>
       </c>
       <c r="P9" t="n">
-        <v>21.88402435148583</v>
+        <v>13.45287318408648</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.62889073282291</v>
+        <v>8.992889456329019</v>
       </c>
       <c r="R9" t="n">
-        <v>7.115399162102842</v>
+        <v>4.374084082730677</v>
       </c>
       <c r="S9" t="n">
-        <v>2.128688573855998</v>
+        <v>1.308579124778497</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4619279337364021</v>
+        <v>0.2839632150345782</v>
       </c>
       <c r="U9" t="n">
-        <v>0.007539628951083826</v>
+        <v>0.004634872933099756</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09607876892856543</v>
+        <v>0.0590629709288996</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8542276001103368</v>
+        <v>0.5251235051678532</v>
       </c>
       <c r="I10" t="n">
-        <v>2.889350614688132</v>
+        <v>1.776184616661818</v>
       </c>
       <c r="J10" t="n">
-        <v>6.792768963249575</v>
+        <v>4.175752044673201</v>
       </c>
       <c r="K10" t="n">
-        <v>11.16260606279151</v>
+        <v>6.862043349739425</v>
       </c>
       <c r="L10" t="n">
-        <v>14.28429260961599</v>
+        <v>8.781052968829311</v>
       </c>
       <c r="M10" t="n">
-        <v>15.06078375122958</v>
+        <v>9.258389161154687</v>
       </c>
       <c r="N10" t="n">
-        <v>14.70267197613221</v>
+        <v>9.038245360419706</v>
       </c>
       <c r="O10" t="n">
-        <v>13.58029726637578</v>
+        <v>8.348282472750284</v>
       </c>
       <c r="P10" t="n">
-        <v>11.62029038023304</v>
+        <v>7.143397865800726</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.045286732736511</v>
+        <v>4.945718411146311</v>
       </c>
       <c r="R10" t="n">
-        <v>4.320050828369859</v>
+        <v>2.655685947403067</v>
       </c>
       <c r="S10" t="n">
-        <v>1.674390909418726</v>
+        <v>1.029306502460914</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4105183763311431</v>
+        <v>0.2523599666962073</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005240660123376302</v>
+        <v>0.0032216165961218</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32025,10 +32025,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998885</v>
@@ -32177,19 +32177,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32329,7 +32329,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -32338,7 +32338,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
@@ -32484,7 +32484,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.116681354841</v>
@@ -32493,19 +32493,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,34 +32548,34 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917241</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
@@ -32584,7 +32584,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
         <v>97.77787936116989</v>
@@ -32642,16 +32642,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
@@ -32663,7 +32663,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.116681354841</v>
@@ -32730,19 +32730,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -32812,7 +32812,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -32821,7 +32821,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116989</v>
@@ -32879,16 +32879,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33037,7 +33037,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.116681354841</v>
@@ -33204,19 +33204,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,34 +33259,34 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
@@ -33295,7 +33295,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
         <v>97.77787936116989</v>
@@ -33353,16 +33353,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
@@ -33432,7 +33432,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.116681354841</v>
@@ -33441,19 +33441,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,25 +33496,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916796</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
@@ -33523,7 +33523,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
@@ -33532,7 +33532,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
         <v>97.77787936116989</v>
@@ -33590,16 +33590,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
@@ -33611,7 +33611,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
@@ -33669,7 +33669,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.116681354841</v>
@@ -33678,19 +33678,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,25 +33733,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917232</v>
@@ -33760,7 +33760,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
@@ -33769,7 +33769,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
         <v>97.77787936116989</v>
@@ -33827,16 +33827,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
@@ -33848,7 +33848,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34064,28 +34064,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,28 +34128,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34161,7 +34161,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,13 +34204,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34222,25 +34222,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
         <v>0.06604272567356906</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
@@ -34292,7 +34292,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34316,10 +34316,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
         <v>0.04590510768130049</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,25 +34459,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -34695,34 +34695,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.459147934020308</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9083906948817464</v>
+        <v>6.322231741897012</v>
       </c>
       <c r="K2" t="n">
-        <v>1.361442175632203</v>
+        <v>9.475386511593182</v>
       </c>
       <c r="L2" t="n">
-        <v>1.688989405823955</v>
+        <v>11.75505483862104</v>
       </c>
       <c r="M2" t="n">
-        <v>1.879326147397212</v>
+        <v>13.07976346455028</v>
       </c>
       <c r="N2" t="n">
-        <v>1.909735609237095</v>
+        <v>13.29140771187839</v>
       </c>
       <c r="O2" t="n">
-        <v>1.803309182076397</v>
+        <v>12.55069940237765</v>
       </c>
       <c r="P2" t="n">
-        <v>1.539082665869758</v>
+        <v>10.71173156923628</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.155786985397853</v>
+        <v>8.044064307489421</v>
       </c>
       <c r="R2" t="n">
-        <v>0.672312664249727</v>
+        <v>4.679172178169779</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.19716334000105</v>
+        <v>1.372220492257842</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5410312747723081</v>
+        <v>3.765477913850469</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9247086227794468</v>
+        <v>6.435801511268405</v>
       </c>
       <c r="L3" t="n">
-        <v>1.243384859458851</v>
+        <v>8.653729359136875</v>
       </c>
       <c r="M3" t="n">
-        <v>1.450971484313459</v>
+        <v>10.09849399206822</v>
       </c>
       <c r="N3" t="n">
-        <v>1.489374382002836</v>
+        <v>10.36577107903157</v>
       </c>
       <c r="O3" t="n">
-        <v>1.362486586628912</v>
+        <v>9.482655419555563</v>
       </c>
       <c r="P3" t="n">
-        <v>1.09351560470901</v>
+        <v>7.610666979862664</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7309862225975223</v>
+        <v>5.087529325690738</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3555470370770522</v>
+        <v>2.474541820178601</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3394256349377582</v>
+        <v>2.362339833849137</v>
       </c>
       <c r="K4" t="n">
-        <v>0.55778058563772</v>
+        <v>3.882050029136165</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7137671124819467</v>
+        <v>4.96768749424827</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7525673425783421</v>
+        <v>5.23772994150195</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7346729732425472</v>
+        <v>5.113188430395081</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6785894010559681</v>
+        <v>4.72285710899915</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5806504625449316</v>
+        <v>4.041220155526414</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4020122828097845</v>
+        <v>2.797931362940005</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>11.17539134075754</v>
       </c>
       <c r="K5" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L5" t="n">
         <v>20.77863378260766</v>
@@ -34950,16 +34950,16 @@
         <v>23.49434324994148</v>
       </c>
       <c r="O5" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978145</v>
       </c>
       <c r="P5" t="n">
-        <v>18.93442017160915</v>
+        <v>18.93442017160913</v>
       </c>
       <c r="Q5" t="n">
         <v>14.21896100560221</v>
       </c>
       <c r="R5" t="n">
-        <v>8.271063506783463</v>
+        <v>8.271063506783435</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>7.844982215203174</v>
+        <v>4.663615574899505</v>
       </c>
       <c r="J8" t="n">
-        <v>18.17920476109276</v>
+        <v>11.17539134075756</v>
       </c>
       <c r="K8" t="n">
-        <v>27.24591546419067</v>
+        <v>16.74901469844195</v>
       </c>
       <c r="L8" t="n">
-        <v>33.8009673819779</v>
+        <v>20.77863378260766</v>
       </c>
       <c r="M8" t="n">
-        <v>37.61008896161921</v>
+        <v>23.12023369725966</v>
       </c>
       <c r="N8" t="n">
-        <v>38.21865952115564</v>
+        <v>23.49434324994148</v>
       </c>
       <c r="O8" t="n">
-        <v>36.0887964322369</v>
+        <v>22.18504210978143</v>
       </c>
       <c r="P8" t="n">
-        <v>30.80095281109988</v>
+        <v>18.93442017160915</v>
       </c>
       <c r="Q8" t="n">
-        <v>23.13023282398217</v>
+        <v>14.21896100560221</v>
       </c>
       <c r="R8" t="n">
-        <v>13.4546838224303</v>
+        <v>8.271063506783435</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3.945739151067202</v>
+        <v>2.425583501655538</v>
       </c>
       <c r="J9" t="n">
-        <v>10.82740981568644</v>
+        <v>6.655986523460121</v>
       </c>
       <c r="K9" t="n">
-        <v>18.5057679394702</v>
+        <v>11.37614111852891</v>
       </c>
       <c r="L9" t="n">
-        <v>24.88328874822697</v>
+        <v>15.29662563687356</v>
       </c>
       <c r="M9" t="n">
-        <v>29.03762430027416</v>
+        <v>17.85044062301152</v>
       </c>
       <c r="N9" t="n">
-        <v>29.80616381135464</v>
+        <v>18.32288867065883</v>
       </c>
       <c r="O9" t="n">
-        <v>27.2668167806296</v>
+        <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
-        <v>21.88402435148583</v>
+        <v>13.45287318408647</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.6288907328229</v>
+        <v>8.992889456329024</v>
       </c>
       <c r="R9" t="n">
-        <v>7.115399162102847</v>
+        <v>4.374084082730676</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>6.792768963249576</v>
+        <v>4.175752044673201</v>
       </c>
       <c r="K10" t="n">
-        <v>11.16260606279151</v>
+        <v>6.862043349739427</v>
       </c>
       <c r="L10" t="n">
-        <v>14.284292609616</v>
+        <v>8.781052968829309</v>
       </c>
       <c r="M10" t="n">
-        <v>15.06078375122958</v>
+        <v>9.258389161154689</v>
       </c>
       <c r="N10" t="n">
-        <v>14.70267197613221</v>
+        <v>9.038245360419708</v>
       </c>
       <c r="O10" t="n">
-        <v>13.58029726637578</v>
+        <v>8.348282472750284</v>
       </c>
       <c r="P10" t="n">
-        <v>11.62029038023303</v>
+        <v>7.143397865800729</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.045286732736514</v>
+        <v>4.945718411146309</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,16 +35406,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35424,10 +35424,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35500,7 +35500,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35570,7 +35570,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -35652,10 +35652,10 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35737,7 +35737,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -35886,7 +35886,7 @@
         <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.658232706284</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766673</v>
@@ -35901,7 +35901,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.658232706284</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766673</v>
@@ -36138,13 +36138,13 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917241</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -36290,7 +36290,7 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
@@ -36302,7 +36302,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,13 +36354,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
         <v>296.0766412766673</v>
@@ -36375,7 +36375,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
         <v>296.0766412766673</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36849,10 +36849,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
         <v>117.855135640546</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36928,7 +36928,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
         <v>97.77787936116989</v>
@@ -37001,7 +37001,7 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
@@ -37013,7 +37013,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
@@ -37083,10 +37083,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916796</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -37238,7 +37238,7 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
@@ -37250,7 +37250,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37329,7 +37329,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37408,7 +37408,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37636,16 +37636,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,16 +37794,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -37870,7 +37870,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
@@ -38013,16 +38013,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
